--- a/各种账号密码.xlsx
+++ b/各种账号密码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28365" windowHeight="12975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="服务器" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="179">
   <si>
     <t>服务器信息</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>211.83.55.205</t>
+  </si>
+  <si>
+    <t>信息数据资源管理系统</t>
+  </si>
+  <si>
+    <t>211.83.55.169</t>
+  </si>
+  <si>
+    <t>wlzx@3162200</t>
+  </si>
+  <si>
+    <t>该服务器是业务系统服务器，该系统的数据库服务器位于数据中心</t>
   </si>
   <si>
     <t>数据库信息</t>
@@ -277,13 +289,13 @@
 高基报表实际地址是172.16.4.71:80，被映射到了jybb.swmu.edu.cn:80这里直接访问172.16.4.71:80并不能进入高基报表，因为这个地址实际上被绑定了三个业务系统</t>
   </si>
   <si>
-    <t>信息数据资源管理系统</t>
-  </si>
-  <si>
     <t>http://211.83.55.169/main/#/login?path=#/main/resource</t>
   </si>
   <si>
     <t>M1m@1234</t>
+  </si>
+  <si>
+    <t>该系统的数据库放在数据中心10.12.13.11上</t>
   </si>
   <si>
     <t>数据库审计系统</t>
@@ -428,6 +440,9 @@
     <t>人文与管理学院</t>
   </si>
   <si>
+    <t>http://www.findsoft.com.cn:8660/swcp-web/</t>
+  </si>
+  <si>
     <t>http://211.83.55.170:8680/swcp-web/</t>
   </si>
   <si>
@@ -435,9 +450,6 @@
   </si>
   <si>
     <t>校内服务</t>
-  </si>
-  <si>
-    <t>http://www.findsoft.com.cn:8660/swcp-web/</t>
   </si>
   <si>
     <t>xnyk123</t>
@@ -554,10 +566,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -627,76 +639,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,7 +669,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,16 +690,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,17 +760,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -791,187 +803,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,8 +1083,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,6 +1100,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,18 +1145,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,26 +1171,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,149 +1185,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,9 +1394,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,9 +1443,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1512,8 +1530,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153035</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>659130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1532,7 +1550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23393400" y="2085975"/>
-          <a:ext cx="8267700" cy="829310"/>
+          <a:ext cx="8267700" cy="887730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1835,36 +1853,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="50.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="35.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="68.875" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" s="37" customFormat="1" ht="20.25" spans="1:7">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" s="39" customFormat="1" ht="20.25" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2052,6 +2070,29 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10086</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2071,7 +2112,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
@@ -2090,7 +2131,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2101,7 +2142,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" s="35" customFormat="1" ht="20.25" spans="1:9">
+    <row r="2" s="38" customFormat="1" ht="20.25" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2112,27 +2153,27 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>28</v>
@@ -2141,50 +2182,50 @@
         <v>1521</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" s="14">
         <v>1521</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>19</v>
@@ -2193,14 +2234,14 @@
         <v>3306</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="12"/>
@@ -2220,7 +2261,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2237,7 +2278,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:7">
       <c r="A1" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2246,15 +2287,15 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" s="24" customFormat="1" ht="20.25" spans="1:7">
+    <row r="2" s="27" customFormat="1" ht="20.25" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>5</v>
@@ -2263,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>7</v>
@@ -2271,31 +2312,31 @@
     </row>
     <row r="3" s="7" customFormat="1" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>15</v>
@@ -2305,20 +2346,20 @@
     </row>
     <row r="5" s="7" customFormat="1" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -2327,13 +2368,13 @@
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -2342,32 +2383,32 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -2376,102 +2417,104 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:14">
-      <c r="A10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="B10" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="66" customHeight="1" spans="1:14">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="G12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2481,18 +2524,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="33" t="s">
-        <v>95</v>
+      <c r="G14" s="36" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="1" ht="38" customHeight="1" spans="1:7">
@@ -2502,18 +2545,18 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="34"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" s="7" customFormat="1" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2521,14 +2564,14 @@
     </row>
     <row r="17" s="7" customFormat="1" spans="1:7">
       <c r="A17" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E17" s="14">
         <v>123456</v>
@@ -2538,72 +2581,72 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" s="7" customFormat="1" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2644,8 +2687,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2664,7 +2707,7 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="30" spans="1:8">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="19"/>
@@ -2676,16 +2719,16 @@
     </row>
     <row r="2" s="17" customFormat="1" ht="20.25" spans="1:8">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
@@ -2694,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>7</v>
@@ -2702,132 +2745,134 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13">
         <v>20013</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" s="18" customFormat="1" spans="1:8">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5" s="13">
         <v>123456</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" s="16" customFormat="1" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" s="16" customFormat="1" spans="1:8">
       <c r="A7" s="14"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="23">
+        <v>147</v>
+      </c>
+      <c r="E8" s="26">
         <v>3162593</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2841,7 +2886,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2857,7 +2902,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2867,10 +2912,10 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="20.25" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2879,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
@@ -2887,54 +2932,54 @@
     </row>
     <row r="3" s="7" customFormat="1" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="13">
         <v>13224024294</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -2942,29 +2987,29 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -2988,8 +3033,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
@@ -3002,14 +3047,14 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -3020,79 +3065,79 @@
     </row>
     <row r="3" ht="18" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/各种账号密码.xlsx
+++ b/各种账号密码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="12975" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="服务器" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="200">
   <si>
     <t>服务器信息</t>
   </si>
@@ -141,6 +141,15 @@
     <t>该服务器是业务系统服务器，该系统的数据库服务器位于数据中心</t>
   </si>
   <si>
+    <t>新一卡通系统</t>
+  </si>
+  <si>
+    <t>172.16.4.176</t>
+  </si>
+  <si>
+    <t>sjzl2021!</t>
+  </si>
+  <si>
     <t>数据库信息</t>
   </si>
   <si>
@@ -159,18 +168,33 @@
     <t>OA数据库</t>
   </si>
   <si>
-    <t>oracle</t>
+    <t>Oracle</t>
   </si>
   <si>
     <t>SWMU</t>
   </si>
   <si>
+    <t>SANMENG</t>
+  </si>
+  <si>
+    <t>sjzl@2021</t>
+  </si>
+  <si>
+    <t>只读</t>
+  </si>
+  <si>
+    <t>给公司用只读权限账号</t>
+  </si>
+  <si>
     <t>V3XUSER</t>
   </si>
   <si>
     <t>Oaswmu2020</t>
   </si>
   <si>
+    <t>可读写</t>
+  </si>
+  <si>
     <t>教务系统</t>
   </si>
   <si>
@@ -195,6 +219,15 @@
     <t>swmu_Mysql@126</t>
   </si>
   <si>
+    <t>数据中心数据库</t>
+  </si>
+  <si>
+    <t>10.12.13.11</t>
+  </si>
+  <si>
+    <t>办公室电脑无法连接，可以使用211.83.55.103服务器连接</t>
+  </si>
+  <si>
     <t>信教中心业务系统</t>
   </si>
   <si>
@@ -216,7 +249,7 @@
     <t>liqiyuan</t>
   </si>
   <si>
-    <t>lqyswmu2020!</t>
+    <t>chuanE57082!</t>
   </si>
   <si>
     <t>正版化软件管理后台</t>
@@ -386,6 +419,12 @@
     <t>sunmnet123</t>
   </si>
   <si>
+    <t>一表通</t>
+  </si>
+  <si>
+    <t>http://172.16.4.176:8180/?redecit=1#/login</t>
+  </si>
+  <si>
     <t>其他部门业务系统</t>
   </si>
   <si>
@@ -465,6 +504,30 @@
   </si>
   <si>
     <t>http://172.16.4.150:8035/index</t>
+  </si>
+  <si>
+    <t>实验实践教学综合服务平台</t>
+  </si>
+  <si>
+    <t>http://172.16.4.113/aexp/</t>
+  </si>
+  <si>
+    <t>bert12345</t>
+  </si>
+  <si>
+    <t>智慧后勤</t>
+  </si>
+  <si>
+    <t>后勤处</t>
+  </si>
+  <si>
+    <t>zhhq.swmu.edu.cn/login/login/local</t>
+  </si>
+  <si>
+    <t>gygly</t>
+  </si>
+  <si>
+    <t>by13678307823</t>
   </si>
   <si>
     <t>外部服务</t>
@@ -567,9 +630,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -639,6 +702,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -646,37 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,14 +730,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -705,46 +737,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,9 +762,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,12 +777,73 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -803,7 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +878,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,13 +926,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,31 +998,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,37 +1022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,67 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,11 +1143,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,21 +1230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1153,30 +1240,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1185,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,137 +1260,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,9 +1436,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1394,18 +1466,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,7 +1505,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1549,8 +1618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23393400" y="2085975"/>
-          <a:ext cx="8267700" cy="887730"/>
+          <a:off x="21564600" y="2085975"/>
+          <a:ext cx="8229600" cy="887730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1853,10 +1922,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1872,17 +1941,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="20.25" spans="1:7">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" s="41" customFormat="1" ht="20.25" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +2059,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2093,6 +2162,27 @@
       <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="13">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2109,40 +2199,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="6.875" style="9" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="59.5" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" s="38" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" s="40" customFormat="1" ht="20.25" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2153,102 +2243,147 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:9">
-      <c r="A3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="3" s="40" customFormat="1" spans="1:9">
+      <c r="A3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>1521</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>47</v>
+      <c r="D3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:9">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1521</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" s="7" customFormat="1" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1521</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:9">
+      <c r="A6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="13">
         <v>3306</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2258,44 +2393,44 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="91.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="58.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="45.75" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" s="27" customFormat="1" ht="20.25" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" s="28" customFormat="1" ht="20.25" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>5</v>
@@ -2304,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>7</v>
@@ -2312,54 +2447,54 @@
     </row>
     <row r="3" s="7" customFormat="1" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="E4" s="14">
+        <v>141242</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -2368,13 +2503,13 @@
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -2383,32 +2518,32 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -2417,64 +2552,64 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:14">
-      <c r="A10" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="A10" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" s="7" customFormat="1" ht="66" customHeight="1" spans="1:14">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:14">
       <c r="A12" s="14" t="s">
@@ -2482,39 +2617,39 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2524,18 +2659,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="36" t="s">
-        <v>99</v>
+      <c r="G14" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="1" ht="38" customHeight="1" spans="1:7">
@@ -2545,18 +2680,18 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" s="7" customFormat="1" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2564,14 +2699,14 @@
     </row>
     <row r="17" s="7" customFormat="1" spans="1:7">
       <c r="A17" s="14" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E17" s="14">
         <v>123456</v>
@@ -2581,97 +2716,132 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" s="7" customFormat="1" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="13">
+        <v>111111</v>
+      </c>
+      <c r="E22" s="38">
+        <v>123456</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G14:G15"/>
   </mergeCells>
@@ -2685,50 +2855,50 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="65.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="42.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="9" customWidth="1"/>
-    <col min="9" max="16315" width="9" style="16"/>
+    <col min="1" max="1" width="31.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17" style="7" customWidth="1"/>
+    <col min="3" max="3" width="58.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17" style="9" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="9" customWidth="1"/>
+    <col min="9" max="16315" width="9" style="19"/>
     <col min="16316" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="30" spans="1:8">
+    <row r="1" s="19" customFormat="1" ht="30" spans="1:8">
       <c r="A1" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B1" s="10"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" s="17" customFormat="1" ht="20.25" spans="1:8">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="20.25" spans="1:8">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
@@ -2737,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>7</v>
@@ -2745,125 +2915,165 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13">
         <v>20013</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" s="18" customFormat="1" spans="1:8">
+    <row r="4" s="21" customFormat="1" spans="1:8">
       <c r="A4" s="14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="D4" s="23"/>
       <c r="E4" s="14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+        <v>145</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F5" s="13">
         <v>123456</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" s="16" customFormat="1" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" s="16" customFormat="1" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" s="19" customFormat="1" spans="1:8">
       <c r="A7" s="14"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
-        <v>144</v>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="26">
+        <v>160</v>
+      </c>
+      <c r="E8" s="27">
         <v>3162593</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
+    </row>
+    <row r="9" s="21" customFormat="1" spans="1:8">
+      <c r="A9" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="14">
+        <v>100403</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2886,7 +3096,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2902,7 +3112,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2912,10 +3122,10 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="20.25" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2924,7 +3134,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
@@ -2932,84 +3142,84 @@
     </row>
     <row r="3" s="7" customFormat="1" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C3" s="13">
         <v>13224024294</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="13" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -3020,9 +3230,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://qiye.163.com/login/?from=NetEase163top" tooltip="https://qiye.163.com/login/?from=NetEase163top"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3047,14 +3254,14 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -3065,79 +3272,79 @@
     </row>
     <row r="3" ht="18" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/各种账号密码.xlsx
+++ b/各种账号密码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="服务器" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="222">
   <si>
     <t>服务器信息</t>
   </si>
@@ -57,7 +57,7 @@
     <t>administrastor</t>
   </si>
   <si>
-    <t>wlzx3162200!</t>
+    <t>wlzx@163.com</t>
   </si>
   <si>
     <t>VMWare虚拟机平台</t>
@@ -141,7 +141,7 @@
     <t>该服务器是业务系统服务器，该系统的数据库服务器位于数据中心</t>
   </si>
   <si>
-    <t>新一卡通系统</t>
+    <t>一表通系统（教师）</t>
   </si>
   <si>
     <t>172.16.4.176</t>
@@ -150,6 +150,24 @@
     <t>sjzl2021!</t>
   </si>
   <si>
+    <t>后勤系统</t>
+  </si>
+  <si>
+    <t>211.83.55.213</t>
+  </si>
+  <si>
+    <t>211.83.55.207</t>
+  </si>
+  <si>
+    <t>离校系统</t>
+  </si>
+  <si>
+    <t>211.83.55.6</t>
+  </si>
+  <si>
+    <t>lixiao@126.com</t>
+  </si>
+  <si>
     <t>数据库信息</t>
   </si>
   <si>
@@ -228,6 +246,39 @@
     <t>办公室电脑无法连接，可以使用211.83.55.103服务器连接</t>
   </si>
   <si>
+    <t>实验实训系统数据库</t>
+  </si>
+  <si>
+    <t>172.16.4.114</t>
+  </si>
+  <si>
+    <t>expbook</t>
+  </si>
+  <si>
+    <t>sec_base</t>
+  </si>
+  <si>
+    <t>sjcx_186</t>
+  </si>
+  <si>
+    <t>houqing</t>
+  </si>
+  <si>
+    <t>Swmu55157!</t>
+  </si>
+  <si>
+    <t>数据治理平台配置服务器</t>
+  </si>
+  <si>
+    <t>172.16.4.135</t>
+  </si>
+  <si>
+    <t>乾大可视化</t>
+  </si>
+  <si>
+    <t>xianG1@3:2</t>
+  </si>
+  <si>
     <t>信教中心业务系统</t>
   </si>
   <si>
@@ -259,6 +310,9 @@
   </si>
   <si>
     <t>swmu</t>
+  </si>
+  <si>
+    <t>2021@qq.com</t>
   </si>
   <si>
     <t>OA系统</t>
@@ -377,7 +431,7 @@
     <t>http://portal.swmu.edu.cn:8071/uiauser/teacher/index.action?m_id=100341&amp;p_id=100552</t>
   </si>
   <si>
-    <t>unidata</t>
+    <t>uiadata</t>
   </si>
   <si>
     <t>Lqy102159!</t>
@@ -425,6 +479,12 @@
     <t>http://172.16.4.176:8180/?redecit=1#/login</t>
   </si>
   <si>
+    <t>1234qwer!@#</t>
+  </si>
+  <si>
+    <t>重置密码后，默认密码也是1234qwer!@#</t>
+  </si>
+  <si>
     <t>其他部门业务系统</t>
   </si>
   <si>
@@ -528,6 +588,12 @@
   </si>
   <si>
     <t>by13678307823</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://172.16.4.113/aexp/</t>
+  </si>
+  <si>
+    <t>管理员</t>
   </si>
   <si>
     <t>外部服务</t>
@@ -629,12 +695,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,8 +767,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,32 +823,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,33 +839,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,11 +854,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,7 +887,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,6 +896,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,13 +944,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,61 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,25 +1082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,43 +1106,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,6 +1221,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1158,11 +1260,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,54 +1301,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1240,6 +1309,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1248,10 +1326,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,133 +1338,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1505,12 +1583,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,6 +1597,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1619,7 +1697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21564600" y="2085975"/>
-          <a:ext cx="8229600" cy="887730"/>
+          <a:ext cx="8229600" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,10 +2000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1941,17 +2019,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" s="41" customFormat="1" ht="20.25" spans="1:7">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" s="39" customFormat="1" ht="20.25" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2183,6 +2261,39 @@
         <v>42</v>
       </c>
       <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10086</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2199,18 +2310,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="6.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="9" customWidth="1"/>
@@ -2221,7 +2332,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:9">
       <c r="A1" s="22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2232,7 +2343,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" s="40" customFormat="1" ht="20.25" spans="1:9">
+    <row r="2" s="38" customFormat="1" ht="20.25" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2243,27 +2354,27 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="40" customFormat="1" spans="1:9">
+    <row r="3" s="38" customFormat="1" spans="1:9">
       <c r="A3" s="15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>28</v>
@@ -2272,22 +2383,22 @@
         <v>1521</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:9">
@@ -2297,46 +2408,46 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I4" s="12"/>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" s="14">
         <v>1521</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>19</v>
@@ -2345,36 +2456,151 @@
         <v>3306</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:9">
       <c r="A7" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:9">
+      <c r="A8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1521</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:9">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3306</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:9">
+      <c r="A10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13">
+        <v>3306</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13">
+        <v>123456</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:9">
+      <c r="A11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3306</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="14">
+        <v>123456</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3306</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2396,7 +2622,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2413,7 +2639,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:7">
       <c r="A1" s="22" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2424,13 +2650,13 @@
     </row>
     <row r="2" s="28" customFormat="1" ht="20.25" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>5</v>
@@ -2439,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>7</v>
@@ -2447,54 +2673,54 @@
     </row>
     <row r="3" s="7" customFormat="1" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="14">
-        <v>141242</v>
+        <v>96</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -2503,13 +2729,13 @@
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -2518,32 +2744,32 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -2552,7 +2778,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>15</v>
@@ -2569,23 +2795,23 @@
     </row>
     <row r="10" s="7" customFormat="1" spans="1:14">
       <c r="A10" s="30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -2595,7 +2821,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
     </row>
-    <row r="11" s="7" customFormat="1" ht="66" customHeight="1" spans="1:14">
+    <row r="11" s="7" customFormat="1" spans="1:14">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -2617,17 +2843,17 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -2639,17 +2865,17 @@
     </row>
     <row r="13" s="7" customFormat="1" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2659,21 +2885,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" s="7" customFormat="1" ht="38" customHeight="1" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:7">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2684,14 +2910,14 @@
     </row>
     <row r="16" s="7" customFormat="1" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2699,14 +2925,14 @@
     </row>
     <row r="17" s="7" customFormat="1" spans="1:7">
       <c r="A17" s="14" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E17" s="14">
         <v>123456</v>
@@ -2716,108 +2942,110 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" s="7" customFormat="1" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38" t="s">
-        <v>133</v>
+      <c r="A22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="D22" s="13">
         <v>111111</v>
       </c>
-      <c r="E22" s="38">
-        <v>123456</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="E22" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -2844,6 +3072,7 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G22:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2855,10 +3084,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2877,7 +3106,7 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="30" spans="1:8">
       <c r="A1" s="10" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="22"/>
@@ -2889,16 +3118,16 @@
     </row>
     <row r="2" s="20" customFormat="1" ht="20.25" spans="1:8">
       <c r="A2" s="11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
@@ -2907,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>7</v>
@@ -2915,92 +3144,92 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13">
         <v>20013</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" s="21" customFormat="1" spans="1:8">
       <c r="A4" s="14" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="14" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F5" s="13">
         <v>123456</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:8">
@@ -3010,23 +3239,23 @@
       <c r="D7" s="25"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="24" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E8" s="27">
         <v>3162593</v>
@@ -3037,43 +3266,65 @@
     </row>
     <row r="9" s="21" customFormat="1" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="14">
         <v>100403</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
+    </row>
+    <row r="11" s="21" customFormat="1" spans="1:8">
+      <c r="A11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="14">
+        <v>100403</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3096,7 +3347,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -3112,7 +3363,7 @@
   <sheetData>
     <row r="1" ht="30" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3122,10 +3373,10 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="20.25" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3134,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
@@ -3142,54 +3393,54 @@
     </row>
     <row r="3" s="7" customFormat="1" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C3" s="13">
         <v>13224024294</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -3197,29 +3448,29 @@
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -3254,14 +3505,14 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -3272,79 +3523,79 @@
     </row>
     <row r="3" ht="18" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
